--- a/Cavalry2024stats.xlsx
+++ b/Cavalry2024stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B8386D-AEC6-4868-B23D-2F284B28C43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E5FB0-BCF8-4158-952B-1F51546A7377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
   <si>
     <t>Team</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Round</t>
   </si>
 </sst>
 </file>
@@ -445,8 +451,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,7 +770,7 @@
   <dimension ref="A1:DC31"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -867,6 +873,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -879,130 +891,130 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AW1" t="s">
@@ -1011,25 +1023,25 @@
       <c r="AX1" t="s">
         <v>20</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="BB1" t="s">
         <v>22</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BD1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="BF1" t="s">
@@ -1038,40 +1050,40 @@
       <c r="BG1" t="s">
         <v>25</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BI1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BL1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BO1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BR1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="BT1" t="s">
@@ -1089,76 +1101,76 @@
       <c r="BX1" t="s">
         <v>34</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CB1" s="1" t="s">
+      <c r="BZ1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="CC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CC1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="CF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CF1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="CI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CI1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CK1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="CL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CL1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="CO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CO1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="CR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CR1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="CU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CU1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CV1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="CW1" t="s">
@@ -1187,10 +1199,10 @@
       <c r="A2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D2" t="s">
@@ -1510,10 +1522,10 @@
       <c r="A3" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D3" t="s">
@@ -1833,10 +1845,10 @@
       <c r="A4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
@@ -2156,10 +2168,10 @@
       <c r="A5" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D5" t="s">
@@ -2479,10 +2491,10 @@
       <c r="A6" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D6" t="s">
@@ -2802,10 +2814,10 @@
       <c r="A7" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
@@ -3125,10 +3137,10 @@
       <c r="A8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D8" t="s">
@@ -3448,10 +3460,10 @@
       <c r="A9" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D9" t="s">
@@ -3771,10 +3783,10 @@
       <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D10" t="s">
@@ -4094,10 +4106,10 @@
       <c r="A11" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D11" t="s">
@@ -4417,10 +4429,10 @@
       <c r="A12" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D12" t="s">
@@ -4740,10 +4752,10 @@
       <c r="A13" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
@@ -5063,10 +5075,10 @@
       <c r="A14" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D14" t="s">
@@ -5386,10 +5398,10 @@
       <c r="A15" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D15" t="s">
@@ -5709,10 +5721,10 @@
       <c r="A16" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D16" t="s">
@@ -6032,10 +6044,10 @@
       <c r="A17" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D17" t="s">
@@ -6355,10 +6367,10 @@
       <c r="A18" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D18" t="s">
@@ -6678,10 +6690,10 @@
       <c r="A19" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D19" t="s">
@@ -7001,10 +7013,10 @@
       <c r="A20" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D20" t="s">
@@ -7324,10 +7336,10 @@
       <c r="A21" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D21" t="s">
@@ -7647,10 +7659,10 @@
       <c r="A22" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D22" t="s">
@@ -7970,10 +7982,10 @@
       <c r="A23" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D23" t="s">
@@ -8293,10 +8305,10 @@
       <c r="A24" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D24" t="s">
@@ -8616,10 +8628,10 @@
       <c r="A25" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D25" t="s">
@@ -8939,10 +8951,10 @@
       <c r="A26" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D26" t="s">
@@ -9262,10 +9274,10 @@
       <c r="A27" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D27" t="s">
@@ -9585,10 +9597,10 @@
       <c r="A28" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D28" t="s">
@@ -9908,10 +9920,10 @@
       <c r="A29" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D29" t="s">
@@ -10231,10 +10243,10 @@
       <c r="A30" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D30" t="s">
@@ -10554,10 +10566,10 @@
       <c r="A31" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D31" t="s">
@@ -10875,11 +10887,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="CK1:CM1"/>
     <mergeCell ref="CN1:CP1"/>
     <mergeCell ref="CQ1:CS1"/>
@@ -10893,15 +10909,11 @@
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Cavalry2024stats.xlsx
+++ b/Cavalry2024stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E5FB0-BCF8-4158-952B-1F51546A7377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D97AE9D-6414-4BF6-9784-61962F52AFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>Scheme</t>
   </si>
   <si>
@@ -416,6 +413,9 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>Match</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <dimension ref="A1:DC31"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -874,339 +874,339 @@
   <sheetData>
     <row r="1" spans="1:107" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW1" t="s">
         <v>18</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>19</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB1" t="s">
         <v>21</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF1" t="s">
         <v>23</v>
       </c>
-      <c r="BD1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BI1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BL1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT1" t="s">
         <v>29</v>
       </c>
-      <c r="BR1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>30</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>31</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>32</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>33</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BZ1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="CC1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="CF1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="CI1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="CL1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="CO1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="CR1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CW1" t="s">
         <v>42</v>
       </c>
-      <c r="CU1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>43</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>44</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>45</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>46</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>47</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>48</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1520,16 +1520,16 @@
     </row>
     <row r="3" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1843,16 +1843,16 @@
     </row>
     <row r="4" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2166,16 +2166,16 @@
     </row>
     <row r="5" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2489,16 +2489,16 @@
     </row>
     <row r="6" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2812,16 +2812,16 @@
     </row>
     <row r="7" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3135,16 +3135,16 @@
     </row>
     <row r="8" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3458,16 +3458,16 @@
     </row>
     <row r="9" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3781,16 +3781,16 @@
     </row>
     <row r="10" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4104,16 +4104,16 @@
     </row>
     <row r="11" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
         <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4427,16 +4427,16 @@
     </row>
     <row r="12" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4750,16 +4750,16 @@
     </row>
     <row r="13" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5073,16 +5073,16 @@
     </row>
     <row r="14" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -5396,16 +5396,16 @@
     </row>
     <row r="15" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
         <v>83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -5719,16 +5719,16 @@
     </row>
     <row r="16" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
         <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -6042,16 +6042,16 @@
     </row>
     <row r="17" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -6365,16 +6365,16 @@
     </row>
     <row r="18" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
         <v>91</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -6688,16 +6688,16 @@
     </row>
     <row r="19" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -7011,16 +7011,16 @@
     </row>
     <row r="20" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -7334,16 +7334,16 @@
     </row>
     <row r="21" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -7657,16 +7657,16 @@
     </row>
     <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
         <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>101</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -7980,16 +7980,16 @@
     </row>
     <row r="23" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -8303,16 +8303,16 @@
     </row>
     <row r="24" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
         <v>105</v>
-      </c>
-      <c r="D24" t="s">
-        <v>106</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -8626,16 +8626,16 @@
     </row>
     <row r="25" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" t="s">
         <v>108</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -8949,16 +8949,16 @@
     </row>
     <row r="26" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -9272,16 +9272,16 @@
     </row>
     <row r="27" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" t="s">
         <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>114</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -9595,16 +9595,16 @@
     </row>
     <row r="28" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -9918,16 +9918,16 @@
     </row>
     <row r="29" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -10241,16 +10241,16 @@
     </row>
     <row r="30" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" t="s">
         <v>120</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -10564,16 +10564,16 @@
     </row>
     <row r="31" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
         <v>122</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>123</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -10887,15 +10887,8 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
     <mergeCell ref="CK1:CM1"/>
     <mergeCell ref="CN1:CP1"/>
     <mergeCell ref="CQ1:CS1"/>
@@ -10912,8 +10905,15 @@
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BY1:CA1"/>
     <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Cavalry2024stats.xlsx
+++ b/Cavalry2024stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D97AE9D-6414-4BF6-9784-61962F52AFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176E81F2-E725-4956-8A3E-243BD2D62CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="134">
   <si>
     <t>Scheme</t>
   </si>
@@ -172,9 +172,6 @@
     <t>2024-11-09</t>
   </si>
   <si>
-    <t>Cavalry - Forge 2:1</t>
-  </si>
-  <si>
     <t>4-2-3-1 (100.0%)</t>
   </si>
   <si>
@@ -416,6 +413,15 @@
   </si>
   <si>
     <t>Match</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PPDA 2nd Half</t>
+  </si>
+  <si>
+    <t>PPDA 1st Half</t>
   </si>
 </sst>
 </file>
@@ -449,9 +455,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC31"/>
+  <dimension ref="A1:DE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="DH16" sqref="DH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -870,18 +877,20 @@
     <col min="104" max="104" width="10.75" bestFit="1" customWidth="1"/>
     <col min="105" max="106" width="16.25" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:109" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" t="s">
-        <v>131</v>
-      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -891,130 +900,130 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="O1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="S1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="W1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AW1" t="s">
@@ -1023,25 +1032,25 @@
       <c r="AX1" t="s">
         <v>19</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA1" s="2" t="s">
+      <c r="AZ1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BB1" t="s">
         <v>21</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BD1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BD1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BF1" t="s">
@@ -1050,40 +1059,40 @@
       <c r="BG1" t="s">
         <v>24</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BI1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BI1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BL1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BL1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BO1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BO1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BR1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BR1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BT1" t="s">
@@ -1101,76 +1110,76 @@
       <c r="BX1" t="s">
         <v>33</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BZ1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CB1" s="2" t="s">
+      <c r="BZ1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="CC1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CC1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="CF1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CF1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="CI1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CI1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="CL1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CL1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="CO1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CO1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="CR1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CR1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="CU1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CU1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="CW1" t="s">
@@ -1194,19 +1203,25 @@
       <c r="DC1" t="s">
         <v>48</v>
       </c>
+      <c r="DD1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="2" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1517,19 +1532,25 @@
       <c r="DC2">
         <v>8.44</v>
       </c>
+      <c r="DD2" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>11.56</v>
+      </c>
     </row>
-    <row r="3" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1840,19 +1861,25 @@
       <c r="DC3">
         <v>10.83</v>
       </c>
+      <c r="DD3" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="DE3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2163,19 +2190,25 @@
       <c r="DC4">
         <v>4.7</v>
       </c>
+      <c r="DD4" s="2">
+        <v>5.64</v>
+      </c>
+      <c r="DE4" s="2">
+        <v>3.77</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2486,19 +2519,25 @@
       <c r="DC5">
         <v>7.39</v>
       </c>
+      <c r="DD5" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="DE5" s="2">
+        <v>6.83</v>
+      </c>
     </row>
-    <row r="6" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2809,19 +2848,25 @@
       <c r="DC6">
         <v>5.93</v>
       </c>
+      <c r="DD6" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="DE6" s="2">
+        <v>8.5500000000000007</v>
+      </c>
     </row>
-    <row r="7" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3132,19 +3177,25 @@
       <c r="DC7">
         <v>8.74</v>
       </c>
+      <c r="DD7" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="DE7" s="2">
+        <v>5.27</v>
+      </c>
     </row>
-    <row r="8" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>67</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3455,19 +3506,25 @@
       <c r="DC8">
         <v>9.19</v>
       </c>
+      <c r="DD8" s="2">
+        <v>8.64</v>
+      </c>
+      <c r="DE8" s="2">
+        <v>9.77</v>
+      </c>
     </row>
-    <row r="9" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3778,19 +3835,25 @@
       <c r="DC9">
         <v>13.56</v>
       </c>
+      <c r="DD9" s="2">
+        <v>19.75</v>
+      </c>
+      <c r="DE9" s="2">
+        <v>8.6</v>
+      </c>
     </row>
-    <row r="10" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4101,19 +4164,25 @@
       <c r="DC10">
         <v>7.86</v>
       </c>
+      <c r="DD10" s="2">
+        <v>6.79</v>
+      </c>
+      <c r="DE10" s="2">
+        <v>9.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
         <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4424,19 +4493,25 @@
       <c r="DC11">
         <v>5.65</v>
       </c>
+      <c r="DD11" s="2">
+        <v>7.13</v>
+      </c>
+      <c r="DE11" s="2">
+        <v>3.95</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4747,19 +4822,25 @@
       <c r="DC12">
         <v>6.03</v>
       </c>
+      <c r="DD12" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="DE12" s="2">
+        <v>6.19</v>
+      </c>
     </row>
-    <row r="13" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5070,19 +5151,25 @@
       <c r="DC13">
         <v>15.9</v>
       </c>
+      <c r="DD13" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="DE13" s="2">
+        <v>27.17</v>
+      </c>
     </row>
-    <row r="14" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -5393,19 +5480,25 @@
       <c r="DC14">
         <v>10.220000000000001</v>
       </c>
+      <c r="DD14" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="DE14" s="2">
+        <v>7.76</v>
+      </c>
     </row>
-    <row r="15" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -5716,19 +5809,25 @@
       <c r="DC15">
         <v>13.17</v>
       </c>
+      <c r="DD15" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="DE15" s="2">
+        <v>13.91</v>
+      </c>
     </row>
-    <row r="16" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
         <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -6039,19 +6138,25 @@
       <c r="DC16">
         <v>10</v>
       </c>
+      <c r="DD16" s="2">
+        <v>14.54</v>
+      </c>
+      <c r="DE16" s="2">
+        <v>7.32</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -6362,19 +6467,25 @@
       <c r="DC17">
         <v>5.88</v>
       </c>
+      <c r="DD17" s="2">
+        <v>6.94</v>
+      </c>
+      <c r="DE17" s="2">
+        <v>4.82</v>
+      </c>
     </row>
-    <row r="18" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>91</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -6685,19 +6796,25 @@
       <c r="DC18">
         <v>4.96</v>
       </c>
+      <c r="DD18" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="DE18" s="2">
+        <v>4.24</v>
+      </c>
     </row>
-    <row r="19" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -7008,19 +7125,25 @@
       <c r="DC19">
         <v>9.66</v>
       </c>
+      <c r="DD19" s="2">
+        <v>8.39</v>
+      </c>
+      <c r="DE19" s="2">
+        <v>12.08</v>
+      </c>
     </row>
-    <row r="20" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -7331,19 +7454,25 @@
       <c r="DC20">
         <v>6.53</v>
       </c>
+      <c r="DD20" s="2">
+        <v>5.27</v>
+      </c>
+      <c r="DE20" s="2">
+        <v>8.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -7654,19 +7783,25 @@
       <c r="DC21">
         <v>16.899999999999999</v>
       </c>
+      <c r="DD21" s="2">
+        <v>35.17</v>
+      </c>
+      <c r="DE21" s="2">
+        <v>9.07</v>
+      </c>
     </row>
-    <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
         <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -7977,19 +8112,25 @@
       <c r="DC22">
         <v>7.06</v>
       </c>
+      <c r="DD22" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="DE22" s="2">
+        <v>7.58</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -8300,19 +8441,25 @@
       <c r="DC23">
         <v>9.4</v>
       </c>
+      <c r="DD23" s="2">
+        <v>11.07</v>
+      </c>
+      <c r="DE23" s="2">
+        <v>8.15</v>
+      </c>
     </row>
-    <row r="24" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
         <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>105</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -8623,19 +8770,25 @@
       <c r="DC24">
         <v>6.15</v>
       </c>
+      <c r="DD24" s="2">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="DE24" s="2">
+        <v>4.62</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" t="s">
         <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -8946,19 +9099,25 @@
       <c r="DC25">
         <v>9.77</v>
       </c>
+      <c r="DD25" s="2">
+        <v>14.17</v>
+      </c>
+      <c r="DE25" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -9269,19 +9428,25 @@
       <c r="DC26">
         <v>9.6300000000000008</v>
       </c>
+      <c r="DD26" s="2">
+        <v>9.89</v>
+      </c>
+      <c r="DE26" s="2">
+        <v>9.2899999999999991</v>
+      </c>
     </row>
-    <row r="27" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" t="s">
         <v>112</v>
-      </c>
-      <c r="D27" t="s">
-        <v>113</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -9592,19 +9757,25 @@
       <c r="DC27">
         <v>5.82</v>
       </c>
+      <c r="DD27" s="2">
+        <v>4.54</v>
+      </c>
+      <c r="DE27" s="2">
+        <v>7.29</v>
+      </c>
     </row>
-    <row r="28" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -9915,19 +10086,25 @@
       <c r="DC28">
         <v>12.82</v>
       </c>
+      <c r="DD28" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="DE28" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="29" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -10238,19 +10415,25 @@
       <c r="DC29">
         <v>10.5</v>
       </c>
+      <c r="DD29" s="2">
+        <v>10.77</v>
+      </c>
+      <c r="DE29" s="2">
+        <v>10.27</v>
+      </c>
     </row>
-    <row r="30" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" t="s">
         <v>119</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -10561,19 +10744,25 @@
       <c r="DC30">
         <v>7.29</v>
       </c>
+      <c r="DD30" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="DE30" s="2">
+        <v>3.68</v>
+      </c>
     </row>
-    <row r="31" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
         <v>121</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -10883,15 +11072,25 @@
       </c>
       <c r="DC31">
         <v>9.14</v>
+      </c>
+      <c r="DD31" s="2">
+        <v>11.17</v>
+      </c>
+      <c r="DE31" s="2">
+        <v>7.21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="CT1:CV1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
@@ -10905,15 +11104,11 @@
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BY1:CA1"/>
     <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Cavalry2024stats.xlsx
+++ b/Cavalry2024stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176E81F2-E725-4956-8A3E-243BD2D62CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB4F68-D2DC-48C2-A76D-3D069EAED18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,13 +415,13 @@
     <t>Match</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>PPDA 2nd Half</t>
   </si>
   <si>
     <t>PPDA 1st Half</t>
+  </si>
+  <si>
+    <t>Cavalry - Forge  1:0</t>
   </si>
 </sst>
 </file>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CJ1" workbookViewId="0">
-      <selection activeCell="DH16" sqref="DH16"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1204,10 +1204,10 @@
         <v>48</v>
       </c>
       <c r="DD1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="DE1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:109" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1218,7 +1218,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -11082,15 +11082,8 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
     <mergeCell ref="CT1:CV1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
@@ -11107,8 +11100,15 @@
     <mergeCell ref="CE1:CG1"/>
     <mergeCell ref="CH1:CJ1"/>
     <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
